--- a/biology/Médecine/Olaf_Tandberg_(médecin)/Olaf_Tandberg_(médecin).xlsx
+++ b/biology/Médecine/Olaf_Tandberg_(médecin)/Olaf_Tandberg_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olaf_Tandberg_(m%C3%A9decin)</t>
+          <t>Olaf_Tandberg_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olaf Tandberg, né le 7 juillet 1879 à Askim et mort le 15 juin 1932 à Lillehammer est un médecin, coureur du combiné nordique et sauteur à ski norvégien.
 En 1900, il a établi le record du monde de saut à ski et il a remporté l'année suivante la compétition de combiné nordique du Festival de ski d'Holmenkollen.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Olaf_Tandberg_(m%C3%A9decin)</t>
+          <t>Olaf_Tandberg_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,14 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière sportive
-A la suite de sa carrière, Olaf Tandberg a exercé les fonctions de juge de saut à ski notamment et à Holmenkollen entre 1918 à 1930[1].
-Carrière médicale
-Olaf Tandberg a commencé ses études de médecine en 1897 et il est Candidatus medicinæ (no) en 1904[2]. De 1911 à 1917, il est médecin en chef à l'hôpital de Levanger (en)[2]. Il devient ensuite chirurgien à Lillehammer[3],[4]. Entre 1926 et 1928, il est vice-président Association médicale norvégienne (en) puis président de cette association entre 1929 et 1930[2]. Il meurt en 1932 d'un pleurésie tuberculeuse.
-Avec Nikolai Nissen Paus (en), Olaf Tandberg est une source d'inspiration de l'auteur Øvre Richter Frich[3].
-Vie personnelle
-Olaf Tandberg est le fils de Stener Johannes Tandberg (1837-1911) et de Louise Marie Grøndahl[2].
-Olaf Tandberg s'est marié en 1906 avec Eva Thorne, né le 28 novembre 1883[2].
+          <t>Carrière sportive</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A la suite de sa carrière, Olaf Tandberg a exercé les fonctions de juge de saut à ski notamment et à Holmenkollen entre 1918 à 1930.
 </t>
         </is>
       </c>
@@ -533,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Olaf_Tandberg_(m%C3%A9decin)</t>
+          <t>Olaf_Tandberg_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,14 +559,95 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olaf Tandberg a commencé ses études de médecine en 1897 et il est Candidatus medicinæ (no) en 1904. De 1911 à 1917, il est médecin en chef à l'hôpital de Levanger (en). Il devient ensuite chirurgien à Lillehammer,. Entre 1926 et 1928, il est vice-président Association médicale norvégienne (en) puis président de cette association entre 1929 et 1930. Il meurt en 1932 d'un pleurésie tuberculeuse.
+Avec Nikolai Nissen Paus (en), Olaf Tandberg est une source d'inspiration de l'auteur Øvre Richter Frich.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olaf_Tandberg_(médecin)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olaf_Tandberg_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie personnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olaf Tandberg est le fils de Stener Johannes Tandberg (1837-1911) et de Louise Marie Grøndahl.
+Olaf Tandberg s'est marié en 1906 avec Eva Thorne, né le 28 novembre 1883.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olaf_Tandberg_(médecin)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olaf_Tandberg_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Résultats
-Tandberg remporte la Solberg Rennet disputé sur le Solbergbakken à Bærum le 11 février 1900. Lors d'un saut disputé après la course, Olaf Tandberg bat de plus de trois mètres le record du monde de saut à ski[5]. En 1901, il remporte le combiné nordique du Festival de ski d'Holmenkollen ainsi qu'un Kongepokal.
-Record du monde établis</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Résultats</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tandberg remporte la Solberg Rennet disputé sur le Solbergbakken à Bærum le 11 février 1900. Lors d'un saut disputé après la course, Olaf Tandberg bat de plus de trois mètres le record du monde de saut à ski. En 1901, il remporte le combiné nordique du Festival de ski d'Holmenkollen ainsi qu'un Kongepokal.
+</t>
         </is>
       </c>
     </row>
